--- a/Mapping of aspects.xlsx
+++ b/Mapping of aspects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InkSightAnalyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royle\OneDrive\Desktop\newfolder\InkSightAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF31956-CC18-4B62-9D30-53AC88D7DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61739DBE-A028-4C06-8BCC-CD901F13A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{66F4BE6D-B177-4995-946A-EE1B1647BBD1}"/>
+    <workbookView xWindow="28680" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{66F4BE6D-B177-4995-946A-EE1B1647BBD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Brand Loyalty</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Shipment</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>Others</t>
@@ -485,21 +482,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE7302-1A25-49B6-9922-1F518A60D58C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,20 +561,15 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
